--- a/errorrates.xlsx
+++ b/errorrates.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="foo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC13" workbookViewId="0">
-      <selection activeCell="AJ39" sqref="AJ39"/>
+    <sheetView tabSelected="1" topLeftCell="Q10" workbookViewId="0">
+      <selection activeCell="AP34" sqref="AP34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>3.8461538461538399E-3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>9.1855480710348997E-4</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>2.1432945499081399E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>9.1855480710348997E-4</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>2.4494794856092998E-3</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>3.0618493570116302E-4</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>3.0618493570116302E-4</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -1304,25 +1304,25 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>9.1855480710348997E-4</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>3.0618493570116302E-4</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>3.0618493570116302E-4</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>6.1236987140232701E-4</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>0</v>
+        <v>3.0618493570116302E-4</v>
       </c>
       <c r="AD3" s="1">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>3.0618493570116302E-4</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>3.0618493570116302E-4</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1361,11 +1361,11 @@
         <v>0</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.16538461538461499</v>
+        <v>0.20545009185547999</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(C3:AP3)</f>
-        <v>0.16923076923076882</v>
+        <v>0.21555419473361837</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -1376,25 +1376,25 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1.4302059496567501E-3</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>2.2883295194508001E-3</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>8.5812356979404997E-4</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1.4302059496567501E-3</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1.7162471395880999E-3</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>8.5812356979404997E-4</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1403,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>2.8604118993135001E-4</v>
       </c>
       <c r="M4" s="1">
-        <v>3.8022813688212902E-3</v>
+        <v>2.8604118993135002E-3</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>2.00228832951945E-3</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>2.8604118993135001E-4</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -1424,25 +1424,25 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>5.7208237986270001E-4</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>5.7208237986270001E-4</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>2.8604118993135001E-4</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>8.5812356979404997E-4</v>
       </c>
       <c r="X4" s="1">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>2.8604118993135001E-4</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>2.8604118993135001E-4</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>0</v>
+        <v>2.8604118993135001E-4</v>
       </c>
       <c r="AH4" s="1">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>2.8604118993135001E-4</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1493,11 +1493,11 @@
         <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.110266159695817</v>
+        <v>0.31378718535469102</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ42" si="0">SUM(C4:AP4)</f>
-        <v>0.11406844106463829</v>
+        <f t="shared" ref="AQ4:AQ41" si="0">SUM(C4:AP4)</f>
+        <v>0.33123569794050339</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -1508,43 +1508,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>2.5284450063211101E-3</v>
+        <v>5.4215234480889103E-4</v>
       </c>
       <c r="D5" s="1">
-        <v>3.79266750948166E-3</v>
+        <v>1.17466341375259E-3</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>3.6143489653925998E-4</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>6.3251106894370598E-4</v>
       </c>
       <c r="H5" s="1">
-        <v>1.2642225031605501E-3</v>
+        <v>1.3553808620222201E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>9.0358724134815199E-5</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>9.0358724134815199E-5</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>9.0358724134815199E-5</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1.8071744826962999E-4</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>9.0358724134815204E-4</v>
       </c>
       <c r="N5" s="1">
-        <v>1.2642225031605501E-3</v>
+        <v>2.7107617240444497E-4</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>9.0358724134815199E-5</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -1556,49 +1556,49 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>2.5284450063211101E-3</v>
+        <v>2.1686093792355598E-3</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>4.5179362067407602E-4</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>9.0358724134815199E-5</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>2.7107617240444497E-4</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>9.0358724134815199E-5</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>2.7107617240444497E-4</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>9.0358724134815199E-5</v>
       </c>
       <c r="AD5" s="1">
-        <v>1.2642225031605501E-3</v>
+        <v>1.8071744826962999E-4</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>1.8071744826962999E-4</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>2.7107617240444497E-4</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -1607,29 +1607,29 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>2.7107617240444497E-4</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1.8071744826962999E-4</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>1.8071744826962999E-4</v>
       </c>
       <c r="AN5" s="1">
-        <v>0</v>
+        <v>2.7107617240444497E-4</v>
       </c>
       <c r="AO5" s="1">
         <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.17067003792667501</v>
+        <v>0.213698382578837</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="0"/>
-        <v>0.18331226295828054</v>
+        <v>0.22445107075087997</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -1640,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1.16076610562971E-3</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>2.3215322112594299E-3</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="AE6" s="1">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="AH6" s="1">
         <v>0</v>
@@ -1739,29 +1739,29 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>7.2463768115942004E-3</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>7.2463768115942004E-3</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>0</v>
+        <v>5.8038305281485705E-4</v>
       </c>
       <c r="AO6" s="1">
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.21014492753623101</v>
+        <v>0.24376088218224001</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="0"/>
-        <v>0.2246376811594194</v>
+        <v>0.25304701102727772</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -1772,22 +1772,22 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>4.0871934604904602E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>1.8867924528301799E-2</v>
+        <v>2.7247956403269702E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>2.7247956403269702E-3</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>9.5367847411444093E-3</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1.3623978201634799E-2</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1799,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="N7" s="1">
-        <v>1.8867924528301799E-2</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1817,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>2.7247956403269702E-3</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="AD7" s="1">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1.3623978201634801E-3</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1889,11 +1889,11 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.22641509433962201</v>
+        <v>0.37329700272479499</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="0"/>
-        <v>0.26415094339622558</v>
+        <v>0.42506811989100735</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -1904,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>5.8191584601611397E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>2.6857654431512901E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1.02954341987466E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>4.9239033124440397E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>3.5810205908683901E-3</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>4.4762757385854898E-4</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>2.6857654431512901E-3</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>7.6096687555953398E-3</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1.3428827215756401E-3</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>4.4762757385854898E-4</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>8.9525514771709904E-4</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>1.7905102954341901E-3</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1.3428827215756401E-3</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
@@ -2006,26 +2006,26 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1.3428827215756401E-3</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>4.4762757385854898E-4</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>0</v>
+        <v>4.4762757385854898E-4</v>
       </c>
       <c r="AO8" s="1">
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.1916167664670601E-2</v>
+        <v>0.117726051924798</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="0"/>
-        <v>4.1916167664670601E-2</v>
+        <v>0.16383169203222853</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>3.9714058776806901E-4</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>3.9714058776806901E-4</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1.1494252873563199E-2</v>
+        <v>4.3685464654487603E-3</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>3.9714058776806901E-4</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>7.9428117553613899E-4</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>7.9428117553613899E-4</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>7.9428117553613899E-4</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1.58856235107227E-3</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>7.9428117553613899E-4</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>3.57426528991262E-3</v>
       </c>
       <c r="AD9" s="1">
-        <v>0</v>
+        <v>3.9714058776806901E-4</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="1">
-        <v>5.7471264367815996E-3</v>
+        <v>3.9714058776806901E-4</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -2138,26 +2138,26 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1.1914217633042E-3</v>
       </c>
       <c r="AL9" s="1">
-        <v>0</v>
+        <v>2.7799841143764802E-3</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>0</v>
+        <v>3.9714058776806901E-4</v>
       </c>
       <c r="AO9" s="1">
         <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.16666666666666599</v>
+        <v>0.17156473391580601</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="0"/>
-        <v>0.1839080459770108</v>
+        <v>0.19062748212867331</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>2.20750551876379E-3</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>2.20750551876379E-3</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>2.20750551876379E-3</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>8.8300220750551807E-3</v>
       </c>
       <c r="AG10" s="1">
-        <v>0</v>
+        <v>6.6225165562913899E-3</v>
       </c>
       <c r="AH10" s="1">
         <v>0</v>
@@ -2285,11 +2285,11 @@
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.0909090909090898E-2</v>
+        <v>0.236203090507726</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="0"/>
-        <v>9.0909090909090898E-2</v>
+        <v>0.25827814569536395</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -2300,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>2.0068231988761701E-4</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1.00341159943808E-3</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1.4047762392133201E-3</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -2339,37 +2339,37 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>2.0068231988761701E-4</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>2.0068231988761701E-4</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1.60545855910094E-3</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1.80614087898856E-3</v>
       </c>
       <c r="Y11" s="1">
-        <v>2.6954177897574099E-3</v>
+        <v>2.0068231988761699E-3</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>2.0068231988761701E-4</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>0</v>
+        <v>8.0272927955047095E-4</v>
       </c>
       <c r="AE11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="AF11" s="1">
         <v>0</v>
       </c>
       <c r="AG11" s="1">
-        <v>0</v>
+        <v>8.8300220750551807E-3</v>
       </c>
       <c r="AH11" s="1">
         <v>0</v>
@@ -2402,26 +2402,26 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1.00341159943808E-3</v>
       </c>
       <c r="AL11" s="1">
-        <v>2.6954177897574099E-3</v>
+        <v>2.0068231988761701E-4</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>0</v>
+        <v>4.0136463977523499E-4</v>
       </c>
       <c r="AO11" s="1">
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.175202156334231</v>
+        <v>0.275536825205699</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="0"/>
-        <v>0.18059299191374581</v>
+        <v>0.29941802127232547</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -2432,73 +2432,73 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>4.6576618537494098E-4</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>2.3288309268747E-4</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>4.6576618537494098E-4</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>2.3288309268747E-4</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>5.8220773171867701E-3</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1.7751479289940801E-2</v>
+        <v>2.0959478341872301E-3</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>2.9585798816567999E-3</v>
+        <v>4.6576618537494098E-4</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>2.3288309268747E-4</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>2.3288309268747E-4</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1.63018164881229E-3</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>6.9864927806241204E-4</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>2.3288309268747E-4</v>
       </c>
       <c r="U12" s="1">
-        <v>2.9585798816567999E-3</v>
+        <v>2.3288309268747E-4</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1.86306474149976E-3</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>6.9864927806241204E-4</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>1.1644154634373499E-3</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -2510,34 +2510,34 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>1.1644154634373499E-3</v>
       </c>
       <c r="AD12" s="1">
-        <v>0</v>
+        <v>6.9864927806241204E-4</v>
       </c>
       <c r="AE12" s="1">
-        <v>5.9171597633135998E-3</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
         <v>0</v>
       </c>
       <c r="AG12" s="1">
-        <v>2.9585798816567999E-3</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>2.9585798816567999E-3</v>
+        <v>9.3153237074988305E-4</v>
       </c>
       <c r="AI12" s="1">
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>0</v>
+        <v>4.6576618537494098E-4</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>4.6576618537494098E-4</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>2.3288309268746999E-3</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2549,11 +2549,11 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.13017751479289899</v>
+        <v>0.17419655333022799</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="0"/>
-        <v>0.16568047337278058</v>
+        <v>0.19701909641360008</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1.2124886329190601E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>8.29875518672199E-3</v>
+        <v>2.4249772658381302E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>4.1493775933609898E-3</v>
+        <v>2.1218551076083599E-3</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>3.03122158229766E-4</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>6.0624431645953298E-4</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>9.0936647468929904E-4</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>1.8187329493785901E-3</v>
       </c>
       <c r="O13" s="1">
-        <v>4.1493775933609898E-3</v>
+        <v>6.0624431645953298E-4</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>3.03122158229766E-4</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -2612,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>2.7280994240678901E-3</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>6.0624431645953298E-4</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -2627,16 +2627,16 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>3.03122158229766E-4</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>6.0624431645953298E-4</v>
       </c>
       <c r="Z13" s="1">
-        <v>0</v>
+        <v>6.0624431645953298E-4</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>3.03122158229766E-4</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <v>0</v>
+        <v>3.03122158229766E-4</v>
       </c>
       <c r="AH13" s="1">
         <v>0</v>
@@ -2681,11 +2681,11 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.14522821576763401</v>
+        <v>0.346468626856623</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="0"/>
-        <v>0.16182572614107799</v>
+        <v>0.3622309790845708</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -2696,58 +2696,58 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1.9904458598726102E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>5.2631578947368403E-3</v>
+        <v>2.7866242038216498E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>2.1052631578947299E-2</v>
+        <v>5.57324840764331E-3</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>2.3885350318471302E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>7.9617834394904398E-4</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>2.7866242038216498E-3</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>3.9808917197452199E-4</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>7.9617834394904398E-4</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>5.2631578947368403E-3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>3.9808917197452199E-4</v>
       </c>
       <c r="P14" s="1">
-        <v>5.2631578947368403E-3</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>7.9617834394904398E-4</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1.5923566878980799E-3</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>3.9808917197452199E-4</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2762,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>7.9617834394904398E-4</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>1.5923566878980799E-3</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -2777,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <v>5.2631578947368403E-3</v>
+        <v>3.5828025477706998E-3</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>3.9808917197452199E-4</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
       </c>
       <c r="AG14" s="1">
-        <v>5.2631578947368403E-3</v>
+        <v>1.1942675159235599E-3</v>
       </c>
       <c r="AH14" s="1">
         <v>0</v>
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>3.9808917197452199E-4</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>0</v>
+        <v>3.9808917197452199E-4</v>
       </c>
       <c r="AO14" s="1">
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.326315789473684</v>
+        <v>0.230095541401273</v>
       </c>
       <c r="AQ14" s="1" t="s">
         <v>42</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>6.2500000000000003E-3</v>
+        <v>1.8912529550827401E-3</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>6.2500000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>2.8368794326241102E-3</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>8.0378250591016508E-3</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>2.36406619385342E-3</v>
       </c>
       <c r="O15" s="1">
         <v>0</v>
@@ -2869,22 +2869,22 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>4.7281323877068501E-4</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>5.2009456264775402E-3</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>5.6737588652482204E-3</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>4.7281323877068501E-4</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
@@ -2899,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>4.7281323877068501E-4</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>4.7281323877068501E-4</v>
       </c>
       <c r="AC15" s="1">
         <v>0</v>
@@ -2914,28 +2914,28 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>0</v>
+        <v>9.4562647754137101E-4</v>
       </c>
       <c r="AG15" s="1">
-        <v>0</v>
+        <v>9.4562647754137101E-4</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>0</v>
+        <v>4.7281323877068501E-4</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0</v>
+        <v>9.4562647754137101E-4</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>9.4562647754137101E-4</v>
       </c>
       <c r="AM15" s="1">
-        <v>0</v>
+        <v>4.7281323877068501E-4</v>
       </c>
       <c r="AN15" s="1">
         <v>0</v>
@@ -2944,11 +2944,11 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.14374999999999899</v>
+        <v>0.27706855791962098</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="0"/>
-        <v>0.156249999999999</v>
+        <v>0.30969267139479828</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -2977,16 +2977,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>9.7751710654936396E-4</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>4.8875855327468198E-4</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>2.9325513196480899E-3</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -3019,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>4.8875855327468198E-4</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>4.8875855327468198E-4</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>4.8875855327468198E-4</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>4.8875855327468198E-4</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>1.46627565982404E-3</v>
       </c>
       <c r="AF16" s="1">
         <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>4.8875855327468198E-4</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -3061,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>4.8875855327468198E-4</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>4.8875855327468198E-4</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3076,11 +3076,11 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.5271317829457294E-2</v>
+        <v>0.11485826001955</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="0"/>
-        <v>8.5271317829457294E-2</v>
+        <v>0.12414467253176895</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1.6090104585679799E-3</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>8.0450522928398997E-4</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3136,25 +3136,25 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>2.41351568785197E-3</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>8.0450522928398997E-4</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>2.41351568785197E-3</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>3.2180209171359599E-3</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>8.0450522928398997E-4</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>0</v>
+        <v>8.0450522928398997E-4</v>
       </c>
       <c r="AF17" s="1">
         <v>0</v>
@@ -3208,11 +3208,11 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.12195121951219499</v>
+        <v>0.221238938053097</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="0"/>
-        <v>0.12195121951219499</v>
+        <v>0.23411102172164083</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>4.0700040700040601E-4</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>4.0700040700040601E-4</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -3247,16 +3247,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>4.0700040700040601E-4</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1.2210012210012199E-3</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>4.0700040700040601E-4</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>8.1400081400081299E-4</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>4.0700040700040601E-4</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1.2210012210012199E-3</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>1.2210012210012199E-3</v>
       </c>
       <c r="Z18" s="1">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0</v>
+        <v>3.2560032560032498E-3</v>
       </c>
       <c r="AG18" s="1">
-        <v>0</v>
+        <v>8.1400081400081299E-4</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>0</v>
+        <v>4.0700040700040601E-4</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>4.0700040700040601E-4</v>
       </c>
       <c r="AL18" s="1">
-        <v>0</v>
+        <v>1.2210012210012199E-3</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>7.3260073260073199E-3</v>
       </c>
       <c r="AN18" s="1">
         <v>0</v>
@@ -3340,11 +3340,11 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.11111111111111099</v>
+        <v>0.21774521774521699</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11111111111111099</v>
+        <v>0.23768823768823691</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -3355,58 +3355,58 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1.0866021949364299E-4</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>3.2598065848093001E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>1.4947683109118E-3</v>
+        <v>4.2377485602520899E-3</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>2.1732043898728599E-4</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>4.3464087797457301E-4</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>2.1732043898728599E-4</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>2.1732043898728599E-4</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>9.7794197544279009E-4</v>
       </c>
       <c r="M19" s="1">
-        <v>2.9895366218236101E-3</v>
+        <v>1.521243072911E-3</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>5.4330109746821595E-4</v>
       </c>
       <c r="O19" s="1">
-        <v>1.4947683109118E-3</v>
+        <v>5.4330109746821595E-4</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1.0866021949364299E-4</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>1.19526241443007E-3</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>2.9895366218236101E-3</v>
+        <v>4.3464087797457302E-3</v>
       </c>
       <c r="U19" s="1">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>4.3464087797457301E-4</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>5.4330109746821595E-4</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <v>0</v>
+        <v>1.3039226339237201E-3</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -3445,25 +3445,25 @@
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <v>0</v>
+        <v>1.0866021949364299E-4</v>
       </c>
       <c r="AH19" s="1">
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>0</v>
+        <v>3.2598065848093001E-4</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0</v>
+        <v>1.0866021949364299E-3</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1.0866021949364299E-4</v>
       </c>
       <c r="AL19" s="1">
-        <v>0</v>
+        <v>1.0866021949364299E-4</v>
       </c>
       <c r="AM19" s="1">
-        <v>0</v>
+        <v>4.3464087797457301E-4</v>
       </c>
       <c r="AN19" s="1">
         <v>0</v>
@@ -3472,11 +3472,11 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.19880418535127001</v>
+        <v>0.27827882212322003</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="0"/>
-        <v>0.20777279521674083</v>
+        <v>0.29772900141258213</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -3490,19 +3490,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>4.0933278755628298E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>6.1399918133442399E-4</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>2.04666393778141E-4</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>2.04666393778141E-4</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>2.04666393778141E-4</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>2.04666393778141E-4</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>4.0933278755628298E-4</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>8.4507042253521101E-3</v>
+        <v>2.25133033155955E-3</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>3.4793286942283999E-3</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>2.04666393778141E-4</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>2.04666393778141E-4</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -3586,16 +3586,16 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0</v>
+        <v>3.4793286942283999E-3</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>4.0933278755628298E-4</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>2.04666393778141E-4</v>
       </c>
       <c r="AM20" s="1">
-        <v>0</v>
+        <v>6.1399918133442399E-4</v>
       </c>
       <c r="AN20" s="1">
         <v>0</v>
@@ -3604,11 +3604,11 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.183098591549295</v>
+        <v>0.10069586573884499</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="0"/>
-        <v>0.1915492957746471</v>
+        <v>0.11379451494064603</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1.6977928692699399E-3</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>3.3955857385398898E-3</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>5.0933786078098398E-3</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>1.6977928692699399E-3</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>1.6977928692699399E-3</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3700,16 +3700,16 @@
         <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>0</v>
+        <v>3.3955857385398898E-3</v>
       </c>
       <c r="AE21" s="1">
-        <v>0</v>
+        <v>1.6977928692699399E-3</v>
       </c>
       <c r="AF21" s="1">
-        <v>0</v>
+        <v>1.6977928692699399E-3</v>
       </c>
       <c r="AG21" s="1">
-        <v>0</v>
+        <v>1.6977928692699399E-3</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -3730,17 +3730,17 @@
         <v>0</v>
       </c>
       <c r="AN21" s="1">
-        <v>0</v>
+        <v>1.6977928692699399E-3</v>
       </c>
       <c r="AO21" s="1">
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.2222222222222199E-2</v>
+        <v>0.230899830220713</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="0"/>
-        <v>2.2222222222222199E-2</v>
+        <v>0.25466893039049221</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>5.6227157717177298E-4</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>8.4340736575765996E-4</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
@@ -3829,19 +3829,19 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="AD22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="AE22" s="1">
-        <v>0</v>
+        <v>5.6227157717177298E-4</v>
       </c>
       <c r="AF22" s="1">
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <v>0</v>
+        <v>8.4340736575765996E-4</v>
       </c>
       <c r="AH22" s="1">
         <v>0</v>
@@ -3856,23 +3856,23 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="AM22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="AN22" s="1">
-        <v>0</v>
+        <v>2.81135788585886E-4</v>
       </c>
       <c r="AO22" s="1">
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.0551181102362197E-2</v>
+        <v>0.11020522912566701</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="0"/>
-        <v>9.0551181102362197E-2</v>
+        <v>0.11554680910879885</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -3883,13 +3883,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>6.6239788032678196E-4</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>4.4159858688452098E-4</v>
       </c>
       <c r="L23" s="1">
-        <v>3.24675324675324E-3</v>
+        <v>1.32479576065356E-3</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -3919,22 +3919,22 @@
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>4.4159858688452098E-4</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>4.4159858688452098E-4</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>1.1039964672112999E-3</v>
       </c>
       <c r="Y23" s="1">
-        <v>3.24675324675324E-3</v>
+        <v>4.4159858688452098E-4</v>
       </c>
       <c r="Z23" s="1">
         <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>4.4159858688452098E-4</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
@@ -3964,16 +3964,16 @@
         <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>0</v>
+        <v>1.32479576065356E-3</v>
       </c>
       <c r="AE23" s="1">
-        <v>0</v>
+        <v>4.4159858688452098E-4</v>
       </c>
       <c r="AF23" s="1">
         <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="AH23" s="1">
         <v>0</v>
@@ -3985,26 +3985,26 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="AL23" s="1">
-        <v>0</v>
+        <v>1.5455950540958199E-3</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
       </c>
       <c r="AN23" s="1">
-        <v>0</v>
+        <v>2.2079929344226E-4</v>
       </c>
       <c r="AO23" s="1">
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.162337662337662</v>
+        <v>0.13601236476043199</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="0"/>
-        <v>0.16883116883116847</v>
+        <v>0.14661073084566048</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -4015,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>9.5147478591817299E-4</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>3.1715826197272401E-4</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -4033,28 +4033,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>9.5147478591817299E-4</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>9.5147478591817299E-4</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>3.1715826197272401E-4</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>3.1715826197272401E-4</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>3.1715826197272401E-4</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>6.3431652394544801E-4</v>
       </c>
       <c r="P24" s="1">
-        <v>4.29184549356223E-3</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>3.1715826197272401E-4</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>4.29184549356223E-3</v>
+        <v>1.26863304789089E-3</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>4.29184549356223E-3</v>
+        <v>4.4402156676181404E-3</v>
       </c>
       <c r="Z24" s="1">
-        <v>0</v>
+        <v>1.26863304789089E-3</v>
       </c>
       <c r="AA24" s="1">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <v>0</v>
+        <v>9.5147478591817299E-4</v>
       </c>
       <c r="AE24" s="1">
-        <v>0</v>
+        <v>3.1715826197272401E-4</v>
       </c>
       <c r="AF24" s="1">
         <v>0</v>
       </c>
       <c r="AG24" s="1">
-        <v>0</v>
+        <v>3.1715826197272401E-4</v>
       </c>
       <c r="AH24" s="1">
         <v>0</v>
@@ -4117,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>6.3431652394544801E-4</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1.58579130986362E-3</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4132,11 +4132,11 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.11587982832618</v>
+        <v>0.183634633682207</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="0"/>
-        <v>0.1287553648068667</v>
+        <v>0.19949254678084322</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -4147,22 +4147,22 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-4</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>2.4624476729869399E-4</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>3.6936715094804199E-4</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>8.6185668554543198E-4</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>3.6936715094804199E-4</v>
       </c>
       <c r="H25" s="1">
-        <v>1.7699115044247701E-3</v>
+        <v>1.23122383649347E-3</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -4171,52 +4171,52 @@
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1.1081014528441201E-3</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>3.6936715094804199E-4</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>2.4624476729869399E-4</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-4</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-4</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-4</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-4</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>3.6936715094804199E-4</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>3.6936715094804199E-4</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>2.4624476729869399E-4</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-3</v>
       </c>
       <c r="X25" s="1">
-        <v>1.7699115044247701E-3</v>
+        <v>5.4173848805712799E-3</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>1.7699115044247701E-3</v>
+        <v>3.2011819748830302E-3</v>
       </c>
       <c r="AA25" s="1">
         <v>0</v>
@@ -4225,19 +4225,19 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>2.4624476729869399E-4</v>
       </c>
       <c r="AD25" s="1">
-        <v>0</v>
+        <v>2.4624476729869399E-4</v>
       </c>
       <c r="AE25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-4</v>
       </c>
       <c r="AF25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-4</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>1.1081014528441201E-3</v>
       </c>
       <c r="AH25" s="1">
         <v>0</v>
@@ -4246,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0</v>
+        <v>3.6936715094804199E-4</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1.23122383649347E-4</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4258,17 +4258,17 @@
         <v>0</v>
       </c>
       <c r="AN25" s="1">
-        <v>0</v>
+        <v>6.1561191824673696E-4</v>
       </c>
       <c r="AO25" s="1">
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.6725663716814103E-2</v>
+        <v>0.186037921694163</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="0"/>
-        <v>9.2035398230088411E-2</v>
+        <v>0.20524501354346117</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
@@ -4279,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>7.6511094108645697E-4</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>2.2953328232593702E-3</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -4294,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>7.6511094108645697E-4</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>7.6511094108645697E-4</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>7.6511094108645697E-4</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>4.5906656465187403E-3</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>3.82555470543228E-3</v>
       </c>
       <c r="Y26" s="1">
-        <v>1.09890109890109E-2</v>
+        <v>7.6511094108645704E-3</v>
       </c>
       <c r="Z26" s="1">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <v>0</v>
+        <v>7.6511094108645697E-4</v>
       </c>
       <c r="AH26" s="1">
         <v>0</v>
@@ -4396,11 +4396,11 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.12087912087912001</v>
+        <v>0.19433817903596001</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="0"/>
-        <v>0.1318681318681309</v>
+        <v>0.21652639632746726</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -4411,22 +4411,22 @@
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>3.5046728971962599E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1.16822429906542E-3</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>8.76168224299065E-3</v>
       </c>
       <c r="F27" s="1">
-        <v>7.4074074074073999E-3</v>
+        <v>3.5046728971962599E-3</v>
       </c>
       <c r="G27" s="1">
-        <v>7.4074074074073999E-3</v>
+        <v>3.5046728971962599E-3</v>
       </c>
       <c r="H27" s="1">
-        <v>7.4074074074073999E-3</v>
+        <v>1.16822429906542E-3</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -4438,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>5.8411214953271002E-4</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
+        <v>1.16822429906542E-3</v>
       </c>
       <c r="N27" s="1">
-        <v>7.4074074074073999E-3</v>
+        <v>5.2570093457943896E-3</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>5.8411214953271002E-4</v>
       </c>
       <c r="S27" s="1">
-        <v>0</v>
+        <v>2.92056074766355E-3</v>
       </c>
       <c r="T27" s="1">
         <v>0</v>
@@ -4471,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>2.92056074766355E-3</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>5.8411214953271002E-4</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4486,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>5.8411214953271002E-4</v>
       </c>
       <c r="AC27" s="1">
         <v>0</v>
       </c>
       <c r="AD27" s="1">
-        <v>7.4074074074073999E-3</v>
+        <v>1.16822429906542E-3</v>
       </c>
       <c r="AE27" s="1">
         <v>0</v>
@@ -4507,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="AI27" s="1">
-        <v>0</v>
+        <v>5.8411214953271002E-4</v>
       </c>
       <c r="AJ27" s="1">
-        <v>0</v>
+        <v>5.8411214953271002E-4</v>
       </c>
       <c r="AK27" s="1">
         <v>0</v>
@@ -4528,11 +4528,11 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0.21481481481481399</v>
+        <v>0.27862149532710201</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="0"/>
-        <v>0.25185185185185099</v>
+        <v>0.31717289719626085</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>9.2592592592592501E-3</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="1">
-        <v>0</v>
+        <v>9.2592592592592501E-3</v>
       </c>
       <c r="AE28" s="1">
         <v>0</v>
@@ -4660,11 +4660,11 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>0.4</v>
+        <v>0.21296296296296199</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.23148148148148048</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
@@ -4675,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>4.3668122270742299E-4</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>6.0240963855421603E-3</v>
+        <v>4.3668122270742299E-4</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -4693,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>1.3100436681222701E-3</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>6.0240963855421603E-3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>4.3668122270742299E-4</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>0</v>
+        <v>8.7336244541484696E-4</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>1.20481927710843E-2</v>
+        <v>3.0567685589519599E-3</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>1.20481927710843E-2</v>
+        <v>8.7336244541484696E-4</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>8.7336244541484696E-4</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>0</v>
+        <v>4.3668122270742299E-4</v>
       </c>
       <c r="AA29" s="1">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>0</v>
+        <v>8.7336244541484696E-4</v>
       </c>
       <c r="AE29" s="1">
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>6.0240963855421603E-3</v>
+        <v>1.74672489082969E-3</v>
       </c>
       <c r="AH29" s="1">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>4.3668122270742299E-4</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4786,17 +4786,17 @@
         <v>0</v>
       </c>
       <c r="AN29" s="1">
-        <v>0</v>
+        <v>4.3668122270742299E-4</v>
       </c>
       <c r="AO29" s="1">
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>9.6385542168674704E-2</v>
+        <v>0.14716157205240099</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="0"/>
-        <v>0.13855421686746977</v>
+        <v>0.15938864628820884</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -4810,40 +4810,40 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>3.7629350893697002E-4</v>
       </c>
       <c r="E30" s="1">
-        <v>2.5380710659898401E-3</v>
+        <v>3.7629350893697002E-4</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>3.7629350893697002E-4</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>7.5258701787394103E-4</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>1.8814675446848501E-4</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>3.7629350893697002E-4</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>0</v>
+        <v>1.8814675446848501E-4</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>1.3170272812793901E-3</v>
       </c>
       <c r="O30" s="1">
-        <v>0</v>
+        <v>1.8814675446848501E-4</v>
       </c>
       <c r="P30" s="1">
         <v>0</v>
@@ -4852,34 +4852,34 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>1.8814675446848501E-4</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>3.7629350893697002E-4</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>3.7629350893697002E-4</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>2.5380710659898401E-3</v>
+        <v>3.7629350893697002E-4</v>
       </c>
       <c r="W30" s="1">
-        <v>7.61421319796954E-3</v>
+        <v>5.6444026340545601E-4</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>3.7629350893697002E-4</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>5.6444026340545601E-4</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -4891,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <v>0</v>
+        <v>1.8814675446848501E-4</v>
       </c>
       <c r="AF30" s="1">
-        <v>0</v>
+        <v>1.8814675446848501E-4</v>
       </c>
       <c r="AG30" s="1">
-        <v>0</v>
+        <v>1.1288805268109101E-3</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -4906,29 +4906,29 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>0</v>
+        <v>1.8814675446848501E-4</v>
       </c>
       <c r="AK30" s="1">
         <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>0</v>
+        <v>1.6933207902163599E-3</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
       </c>
       <c r="AN30" s="1">
-        <v>0</v>
+        <v>1.8814675446848501E-4</v>
       </c>
       <c r="AO30" s="1">
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0.14974619289340099</v>
+        <v>0.18193791157102501</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="0"/>
-        <v>0.16243654822335021</v>
+        <v>0.19247412982126016</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1.8308311973636E-4</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
+        <v>1.8308311973636E-4</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
+        <v>1.8308311973636E-4</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
@@ -5026,10 +5026,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <v>0</v>
+        <v>3.6616623947271999E-4</v>
       </c>
       <c r="AG31" s="1">
-        <v>0</v>
+        <v>1.64774807762724E-3</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1.8308311973636E-4</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -5050,17 +5050,17 @@
         <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>2.4875621890547198E-3</v>
+        <v>5.4924935920908002E-3</v>
       </c>
       <c r="AO31" s="1">
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>4.7263681592039801E-2</v>
+        <v>0.10069571585499799</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="0"/>
-        <v>4.9751243781094523E-2</v>
+        <v>0.10893445624313419</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>1.3869625520110901E-3</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -5110,13 +5110,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>0</v>
+        <v>1.3869625520110901E-3</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>1.3869625520110901E-3</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="1">
-        <v>0</v>
+        <v>1.3869625520110901E-3</v>
       </c>
       <c r="V32" s="1">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <v>0</v>
+        <v>1.3869625520110901E-3</v>
       </c>
       <c r="AF32" s="1">
         <v>0</v>
@@ -5188,11 +5188,11 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>5.1282051282051197E-2</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="0"/>
-        <v>5.1282051282051197E-2</v>
+        <v>0.12343966712898745</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
@@ -5206,40 +5206,40 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>1.0260619741432299E-4</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1.12866817155756E-3</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1.0260619741432299E-4</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1.0260619741432299E-4</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>3.0781859224297099E-4</v>
       </c>
       <c r="J33" s="1">
-        <v>2.6281208935611E-3</v>
+        <v>5.1303098707161903E-4</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>3.4886107120870101E-3</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>3.0781859224297099E-4</v>
       </c>
       <c r="M33" s="1">
-        <v>0</v>
+        <v>5.1303098707161903E-4</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>3.0781859224297099E-4</v>
       </c>
       <c r="O33" s="1">
-        <v>0</v>
+        <v>3.0781859224297099E-4</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
@@ -5248,83 +5248,83 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>5.1303098707161903E-4</v>
       </c>
       <c r="S33" s="1">
-        <v>0</v>
+        <v>3.0781859224297099E-4</v>
       </c>
       <c r="T33" s="1">
-        <v>0</v>
+        <v>1.3338805663862001E-3</v>
       </c>
       <c r="U33" s="1">
-        <v>0</v>
+        <v>3.0781859224297099E-4</v>
       </c>
       <c r="V33" s="1">
-        <v>2.6281208935611E-3</v>
+        <v>6.1563718448594197E-4</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>2.0521239482864699E-4</v>
       </c>
       <c r="X33" s="1">
         <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>1.02606197414323E-3</v>
       </c>
       <c r="Z33" s="1">
-        <v>0</v>
+        <v>2.0521239482864699E-4</v>
       </c>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>2.0521239482864699E-4</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <v>1.31406044678055E-3</v>
+        <v>8.2084957931459002E-4</v>
       </c>
       <c r="AD33" s="1">
-        <v>0</v>
+        <v>5.1303098707161903E-4</v>
       </c>
       <c r="AE33" s="1">
-        <v>0</v>
+        <v>1.7443053560435001E-3</v>
       </c>
       <c r="AF33" s="1">
-        <v>0</v>
+        <v>9.2345577672891404E-4</v>
       </c>
       <c r="AG33" s="1">
         <v>0</v>
       </c>
       <c r="AH33" s="1">
-        <v>0</v>
+        <v>2.0521239482864699E-4</v>
       </c>
       <c r="AI33" s="1">
-        <v>0</v>
+        <v>1.0260619741432299E-4</v>
       </c>
       <c r="AJ33" s="1">
-        <v>0</v>
+        <v>3.0781859224297099E-4</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>2.0521239482864699E-4</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1.0260619741432299E-4</v>
       </c>
       <c r="AM33" s="1">
-        <v>0</v>
+        <v>3.0781859224297099E-4</v>
       </c>
       <c r="AN33" s="1">
-        <v>0</v>
+        <v>1.02606197414323E-3</v>
       </c>
       <c r="AO33" s="1">
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>0.12089356110381</v>
+        <v>0.206443669197619</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="0"/>
-        <v>0.12746386333771276</v>
+        <v>0.22460496613995429</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>1.5060240963855401E-3</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>3.0120481927710802E-3</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -5362,19 +5362,19 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>9.0361445783132491E-3</v>
       </c>
       <c r="M34" s="1">
-        <v>0</v>
+        <v>4.5180722891566202E-3</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
       </c>
       <c r="O34" s="1">
-        <v>0</v>
+        <v>1.5060240963855401E-3</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>9.0361445783132491E-3</v>
       </c>
       <c r="Q34" s="1">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>0</v>
+        <v>1.5060240963855401E-3</v>
       </c>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>1.5060240963855401E-3</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5413,19 +5413,19 @@
         <v>0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>1.5060240963855401E-3</v>
       </c>
       <c r="AD34" s="1">
         <v>0</v>
       </c>
       <c r="AE34" s="1">
-        <v>1.9230769230769201E-2</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="1">
         <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>1.9230769230769201E-2</v>
+        <v>1.5060240963855401E-3</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>3.0120481927710802E-3</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5446,17 +5446,17 @@
         <v>0</v>
       </c>
       <c r="AN34" s="1">
-        <v>0</v>
+        <v>1.5060240963855401E-3</v>
       </c>
       <c r="AO34" s="1">
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>0.19230769230769201</v>
+        <v>0.234939759036144</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" si="0"/>
-        <v>0.23076923076923042</v>
+        <v>0.27409638554216809</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>3.0165912518853601E-3</v>
       </c>
       <c r="F35" s="1">
-        <v>2.2222222222222199E-2</v>
+        <v>1.5082956259426801E-3</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>0</v>
+        <v>3.0165912518853601E-3</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1.5082956259426801E-3</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
@@ -5533,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>1.5082956259426801E-3</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>3.0165912518853601E-3</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -5584,11 +5584,11 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>0.28888888888888797</v>
+        <v>0.401206636500754</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="0"/>
-        <v>0.31111111111111017</v>
+        <v>0.41478129713423811</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
@@ -5599,19 +5599,19 @@
         <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>5.84795321637426E-3</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>3.1376064545047002E-3</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -5626,16 +5626,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>1.3446884805020101E-3</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="O36" s="1">
-        <v>0</v>
+        <v>1.3446884805020101E-3</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
@@ -5647,31 +5647,31 @@
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <v>2.3391812865496998E-2</v>
+        <v>4.0340654415060503E-3</v>
       </c>
       <c r="T36" s="1">
-        <v>5.84795321637426E-3</v>
+        <v>1.29986553115194E-2</v>
       </c>
       <c r="U36" s="1">
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
       </c>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="AB36" s="1">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <v>1.1695906432748499E-2</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="AE36" s="1">
         <v>0</v>
@@ -5689,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>0</v>
+        <v>1.7929179740026799E-3</v>
       </c>
       <c r="AJ36" s="1">
         <v>0</v>
@@ -5704,23 +5704,23 @@
         <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
       </c>
       <c r="AN36" s="1">
-        <v>0</v>
+        <v>4.4822949350067199E-4</v>
       </c>
       <c r="AO36" s="1">
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>0.13450292397660801</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="0"/>
-        <v>0.18128654970760205</v>
+        <v>0.24831913939937225</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
@@ -5737,28 +5737,28 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1.2254901960784301E-3</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>4.0849673202614299E-4</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>8.1699346405228696E-4</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>4.0849673202614299E-4</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <v>8.1699346405228696E-4</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>1.63398692810457E-3</v>
       </c>
       <c r="Q37" s="1">
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>8.1699346405228696E-4</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5806,22 +5806,22 @@
         <v>0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>4.0849673202614299E-4</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>4.0849673202614299E-4</v>
       </c>
       <c r="AD37" s="1">
-        <v>0</v>
+        <v>8.1699346405228696E-4</v>
       </c>
       <c r="AE37" s="1">
-        <v>0</v>
+        <v>1.63398692810457E-3</v>
       </c>
       <c r="AF37" s="1">
         <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <v>0</v>
+        <v>1.63398692810457E-3</v>
       </c>
       <c r="AH37" s="1">
         <v>0</v>
@@ -5836,10 +5836,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1.2254901960784301E-3</v>
       </c>
       <c r="AM37" s="1">
-        <v>0</v>
+        <v>4.0849673202614299E-4</v>
       </c>
       <c r="AN37" s="1">
         <v>0</v>
@@ -5848,11 +5848,11 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>0.137566137566137</v>
+        <v>0.240604575163398</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="0"/>
-        <v>0.137566137566137</v>
+        <v>0.25326797385620842</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
@@ -5866,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>2.7300027300027302E-4</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>5.4600054600054604E-4</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>2.7300027300027302E-4</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>2.7300027300027302E-4</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <v>0</v>
+        <v>1.0920010920010899E-3</v>
       </c>
       <c r="S38" s="1">
         <v>0</v>
@@ -5917,16 +5917,16 @@
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <v>0</v>
+        <v>2.7300027300027302E-4</v>
       </c>
       <c r="V38" s="1">
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>2.7300027300027302E-4</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>5.4600054600054604E-4</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <v>0</v>
+        <v>1.3650013650013601E-3</v>
       </c>
       <c r="AE38" s="1">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="1">
-        <v>0</v>
+        <v>8.1900081900081905E-4</v>
       </c>
       <c r="AN38" s="1">
         <v>0</v>
@@ -5980,11 +5980,11 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>7.3260073260073194E-2</v>
+        <v>0.10210210210210199</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="0"/>
-        <v>7.3260073260073194E-2</v>
+        <v>0.10783510783510772</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>1.5128593040847199E-3</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
+        <v>1.5128593040847199E-3</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6040,28 +6040,28 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>3.9215686274509803E-2</v>
+        <v>1.3615733736762401E-2</v>
       </c>
       <c r="S39" s="1">
-        <v>0</v>
+        <v>1.5128593040847199E-3</v>
       </c>
       <c r="T39" s="1">
-        <v>5.8823529411764698E-2</v>
+        <v>4.5385779122541596E-3</v>
       </c>
       <c r="U39" s="1">
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>0</v>
+        <v>1.5128593040847199E-3</v>
       </c>
       <c r="W39" s="1">
-        <v>0</v>
+        <v>1.5128593040847199E-3</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1.5128593040847199E-3</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>1.5128593040847199E-3</v>
       </c>
       <c r="Z39" s="1">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="1">
-        <v>0</v>
+        <v>1.5128593040847199E-3</v>
       </c>
       <c r="AG39" s="1">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1.9607843137254902E-2</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -6112,11 +6112,11 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>0.27450980392156799</v>
+        <v>0.231467473524962</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="0"/>
-        <v>0.39215686274509737</v>
+        <v>0.26172465960665631</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>6.7249495628782696E-4</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>2.2416498542927499E-4</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -6151,13 +6151,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>6.7249495628782696E-4</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>2.2416498542927499E-4</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>2.2416498542927499E-4</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>2.97619047619047E-3</v>
+        <v>2.2416498542927499E-4</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -6187,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>0</v>
+        <v>6.7249495628782696E-4</v>
       </c>
       <c r="X40" s="1">
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <v>0</v>
+        <v>2.2416498542927499E-4</v>
       </c>
       <c r="Z40" s="1">
         <v>0</v>
@@ -6211,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="AE40" s="1">
-        <v>2.97619047619047E-3</v>
+        <v>4.4832997085855102E-3</v>
       </c>
       <c r="AF40" s="1">
         <v>0</v>
       </c>
       <c r="AG40" s="1">
-        <v>0</v>
+        <v>8.9665994171710302E-4</v>
       </c>
       <c r="AH40" s="1">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>0</v>
+        <v>4.4832997085855102E-4</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -6244,11 +6244,11 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>4.1666666666666602E-2</v>
+        <v>8.5406859448554098E-2</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="0"/>
-        <v>4.761904761904754E-2</v>
+        <v>9.4373458865725124E-2</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="1">
-        <v>0</v>
+        <v>9.9009900990098994E-3</v>
       </c>
       <c r="V41" s="1">
         <v>0</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="1">
-        <v>0</v>
+        <v>9.9009900990098994E-3</v>
       </c>
       <c r="AG41" s="1">
         <v>0</v>
@@ -6376,11 +6376,11 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>0</v>
+        <v>0.18811881188118801</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2079207920792078</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
@@ -6391,121 +6391,121 @@
         <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>3.4482758620689599E-2</v>
+        <v>3.9353917544172702E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>8.4202085004009594E-2</v>
+        <v>3.2482598607888602E-2</v>
       </c>
       <c r="E42" s="1">
-        <v>0.10184442662389701</v>
+        <v>0.114983044797429</v>
       </c>
       <c r="F42" s="1">
-        <v>2.0850040096230898E-2</v>
+        <v>2.4585043726574999E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>8.0192461908580506E-3</v>
+        <v>1.5125825450651401E-2</v>
       </c>
       <c r="H42" s="1">
-        <v>1.9246190858059301E-2</v>
+        <v>1.36980189184365E-2</v>
       </c>
       <c r="I42" s="1">
-        <v>1.2028869286287E-2</v>
+        <v>2.4763519543101901E-2</v>
       </c>
       <c r="J42" s="1">
-        <v>5.6134723336006397E-3</v>
+        <v>4.4172764590397996E-3</v>
       </c>
       <c r="K42" s="1">
-        <v>2.9671210906174798E-2</v>
+        <v>3.5382830626450097E-2</v>
       </c>
       <c r="L42" s="1">
-        <v>1.6038492381716101E-2</v>
+        <v>2.5923612350526499E-2</v>
       </c>
       <c r="M42" s="1">
-        <v>3.7690457097032802E-2</v>
+        <v>3.0028556130644202E-2</v>
       </c>
       <c r="N42" s="1">
-        <v>2.80673616680032E-2</v>
+        <v>3.7390683562377201E-2</v>
       </c>
       <c r="O42" s="1">
-        <v>4.0096230954290199E-2</v>
+        <v>1.64643940746028E-2</v>
       </c>
       <c r="P42" s="1">
-        <v>1.6038492381716101E-2</v>
+        <v>1.2805639835802201E-2</v>
       </c>
       <c r="Q42" s="1">
-        <v>1.3632718524458701E-2</v>
+        <v>1.07085489916116E-2</v>
       </c>
       <c r="R42" s="1">
-        <v>4.7313552526062501E-2</v>
+        <v>2.2309477065857501E-2</v>
       </c>
       <c r="S42" s="1">
-        <v>7.4578989574979895E-2</v>
+        <v>7.2550419418168796E-2</v>
       </c>
       <c r="T42" s="1">
-        <v>2.3255813953488299E-2</v>
+        <v>4.9616276994467197E-2</v>
       </c>
       <c r="U42" s="1">
-        <v>1.3632718524458701E-2</v>
+        <v>5.04194181688381E-3</v>
       </c>
       <c r="V42" s="1">
-        <v>1.7642341619887699E-2</v>
+        <v>1.83383901481349E-2</v>
       </c>
       <c r="W42" s="1">
-        <v>2.4057738572574101E-2</v>
+        <v>3.4847403176869497E-2</v>
       </c>
       <c r="X42" s="1">
-        <v>1.9246190858059301E-2</v>
+        <v>3.2214884883098302E-2</v>
       </c>
       <c r="Y42" s="1">
-        <v>4.25020048115477E-2</v>
+        <v>3.7078350883455201E-2</v>
       </c>
       <c r="Z42" s="1">
-        <v>1.12269446672012E-2</v>
+        <v>9.0576476887381692E-3</v>
       </c>
       <c r="AA42" s="1">
-        <v>2.4057738572574101E-2</v>
+        <v>2.1997144386935501E-2</v>
       </c>
       <c r="AB42" s="1">
-        <v>8.0192461908580495E-4</v>
+        <v>1.56166339461003E-3</v>
       </c>
       <c r="AC42" s="1">
-        <v>2.00481154771451E-2</v>
+        <v>1.5438158129573399E-2</v>
       </c>
       <c r="AD42" s="1">
-        <v>2.7265437048917401E-2</v>
+        <v>4.0469391397465602E-2</v>
       </c>
       <c r="AE42" s="1">
-        <v>2.0850040096230898E-2</v>
+        <v>2.1506335891486698E-2</v>
       </c>
       <c r="AF42" s="1">
-        <v>4.0096230954290201E-3</v>
+        <v>4.4618954131715096E-3</v>
       </c>
       <c r="AG42" s="1">
-        <v>6.5757818765036002E-2</v>
+        <v>5.6889166517936803E-2</v>
       </c>
       <c r="AH42" s="1">
-        <v>4.8115477145148303E-3</v>
+        <v>5.75584508299125E-3</v>
       </c>
       <c r="AI42" s="1">
-        <v>8.82117080994386E-3</v>
+        <v>7.0051757986792701E-3</v>
       </c>
       <c r="AJ42" s="1">
-        <v>2.0850040096230898E-2</v>
+        <v>2.7485275745136501E-2</v>
       </c>
       <c r="AK42" s="1">
-        <v>2.24538893344025E-2</v>
+        <v>2.0346243084062101E-2</v>
       </c>
       <c r="AL42" s="1">
-        <v>1.2028869286287E-2</v>
+        <v>2.4495805818311601E-2</v>
       </c>
       <c r="AM42" s="1">
-        <v>4.0096230954290201E-3</v>
+        <v>1.2671782973407099E-2</v>
       </c>
       <c r="AN42" s="1">
-        <v>2.3255813953488299E-2</v>
+        <v>2.0257005175798599E-2</v>
       </c>
       <c r="AO42" s="1">
-        <v>0</v>
+        <v>4.9080849544886598E-4</v>
       </c>
       <c r="AP42" s="1">
         <v>0</v>
